--- a/Data Transfer/Contract.xlsx
+++ b/Data Transfer/Contract.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stlawrencecollege-my.sharepoint.com/personal/xiuhao_shuai_student_sl_on_ca/Documents/BDAI/WeeklyActivities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_F25DC773A252ABDACC104860091A4B7A5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4ECE2225-0879-410A-ACB3-AFA7CBCB9859}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104860091A4B7A5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17312D4E-4A6C-473B-AEA3-741386079C88}"/>
   <bookViews>
-    <workbookView xWindow="10395" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="336" windowWidth="17280" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,17 +413,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -448,7 +448,8 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <v>42624</v>
+        <f ca="1">RANDBETWEEN(DATE(2010,1,1),DATE(2020,12,30))</f>
+        <v>43202</v>
       </c>
       <c r="D2" s="1">
         <v>47298</v>
@@ -457,7 +458,7 @@
         <v>22.608117314566577</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -465,7 +466,8 @@
         <v>15</v>
       </c>
       <c r="C3" s="1">
-        <v>42129</v>
+        <f t="shared" ref="C3:C31" ca="1" si="0">RANDBETWEEN(DATE(2010,1,1),DATE(2020,12,30))</f>
+        <v>41210</v>
       </c>
       <c r="D3" s="1">
         <v>47710</v>
@@ -474,7 +476,7 @@
         <v>32.676168265213242</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -482,7 +484,8 @@
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <v>42515</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44062</v>
       </c>
       <c r="D4" s="1">
         <v>46281</v>
@@ -491,7 +494,7 @@
         <v>33.215026498719865</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -499,7 +502,8 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>41018</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42334</v>
       </c>
       <c r="D5" s="1">
         <v>46041</v>
@@ -508,7 +512,7 @@
         <v>26.713033922783822</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -516,7 +520,8 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <v>42167</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43936</v>
       </c>
       <c r="D6" s="1">
         <v>47633</v>
@@ -525,7 +530,7 @@
         <v>30.290597818638258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -533,7 +538,8 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <v>41010</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40248</v>
       </c>
       <c r="D7" s="1">
         <v>45037</v>
@@ -542,7 +548,7 @@
         <v>30.422159387095675</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -550,7 +556,8 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <v>42409</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42142</v>
       </c>
       <c r="D8" s="1">
         <v>46963</v>
@@ -559,7 +566,7 @@
         <v>29.927627913637931</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -567,7 +574,8 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <v>41498</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43071</v>
       </c>
       <c r="D9" s="1">
         <v>45624</v>
@@ -576,7 +584,7 @@
         <v>21.64885026822374</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -584,7 +592,8 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <v>42140</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41823</v>
       </c>
       <c r="D10" s="1">
         <v>46310</v>
@@ -593,7 +602,7 @@
         <v>28.947485324387983</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -601,7 +610,8 @@
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <v>41297</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44114</v>
       </c>
       <c r="D11" s="1">
         <v>45053</v>
@@ -610,7 +620,7 @@
         <v>22.401606891497789</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -618,7 +628,8 @@
         <v>16</v>
       </c>
       <c r="C12" s="1">
-        <v>41168</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41505</v>
       </c>
       <c r="D12" s="1">
         <v>47185</v>
@@ -627,7 +638,7 @@
         <v>29.383451118397339</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -635,7 +646,8 @@
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <v>41865</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40194</v>
       </c>
       <c r="D13" s="1">
         <v>45047</v>
@@ -644,7 +656,7 @@
         <v>29.944617321296839</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -652,7 +664,8 @@
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <v>41811</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42545</v>
       </c>
       <c r="D14" s="1">
         <v>45297</v>
@@ -661,7 +674,7 @@
         <v>21.910710354550098</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -669,7 +682,8 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>42497</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42557</v>
       </c>
       <c r="D15" s="1">
         <v>47681</v>
@@ -678,7 +692,7 @@
         <v>25.665595698896237</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -686,7 +700,8 @@
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <v>42109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42221</v>
       </c>
       <c r="D16" s="1">
         <v>45367</v>
@@ -695,7 +710,7 @@
         <v>24.998636395972923</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -703,7 +718,8 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>41367</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41048</v>
       </c>
       <c r="D17" s="1">
         <v>47170</v>
@@ -712,7 +728,7 @@
         <v>23.427599471237805</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -720,7 +736,8 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <v>42694</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41068</v>
       </c>
       <c r="D18" s="1">
         <v>45256</v>
@@ -729,7 +746,7 @@
         <v>34.167259306174003</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -737,7 +754,8 @@
         <v>16</v>
       </c>
       <c r="C19" s="1">
-        <v>42663</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44127</v>
       </c>
       <c r="D19" s="1">
         <v>47310</v>
@@ -746,7 +764,7 @@
         <v>20.251591439363992</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -754,7 +772,8 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <v>41743</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41430</v>
       </c>
       <c r="D20" s="1">
         <v>44986</v>
@@ -763,7 +782,7 @@
         <v>30.232362088948378</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -771,7 +790,8 @@
         <v>16</v>
       </c>
       <c r="C21" s="1">
-        <v>42603</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>40492</v>
       </c>
       <c r="D21" s="1">
         <v>46335</v>
@@ -780,7 +800,7 @@
         <v>27.918390692331453</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -788,7 +808,8 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <v>41735</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42017</v>
       </c>
       <c r="D22" s="1">
         <v>46511</v>
@@ -797,7 +818,7 @@
         <v>23.64525945670562</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -805,7 +826,8 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <v>40924</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41840</v>
       </c>
       <c r="D23" s="1">
         <v>46978</v>
@@ -814,7 +836,7 @@
         <v>29.514457429861615</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -822,7 +844,8 @@
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <v>41818</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41171</v>
       </c>
       <c r="D24" s="1">
         <v>46397</v>
@@ -831,7 +854,7 @@
         <v>22.752884333534972</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>7</v>
       </c>
@@ -839,7 +862,8 @@
         <v>17</v>
       </c>
       <c r="C25" s="1">
-        <v>41561</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42168</v>
       </c>
       <c r="D25" s="1">
         <v>45397</v>
@@ -848,7 +872,7 @@
         <v>24.071751647655375</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -856,7 +880,8 @@
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <v>41398</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>43937</v>
       </c>
       <c r="D26" s="1">
         <v>45819</v>
@@ -865,7 +890,7 @@
         <v>28.159441670332242</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -873,7 +898,8 @@
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <v>42415</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44160</v>
       </c>
       <c r="D27" s="1">
         <v>45840</v>
@@ -882,7 +908,7 @@
         <v>20.291523534776353</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -890,7 +916,8 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <v>41978</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42988</v>
       </c>
       <c r="D28" s="1">
         <v>47444</v>
@@ -899,7 +926,7 @@
         <v>33.737860343491377</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -907,7 +934,8 @@
         <v>17</v>
       </c>
       <c r="C29" s="1">
-        <v>41637</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>41208</v>
       </c>
       <c r="D29" s="1">
         <v>45219</v>
@@ -916,7 +944,7 @@
         <v>28.105417191175189</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -924,7 +952,8 @@
         <v>17</v>
       </c>
       <c r="C30" s="1">
-        <v>41780</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44058</v>
       </c>
       <c r="D30" s="1">
         <v>47181</v>
@@ -933,7 +962,7 @@
         <v>33.272787151799122</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -941,7 +970,8 @@
         <v>17</v>
       </c>
       <c r="C31" s="1">
-        <v>42719</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>42925</v>
       </c>
       <c r="D31" s="1">
         <v>47114</v>
@@ -950,107 +980,107 @@
         <v>23.621730155853392</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="2"/>

--- a/Data Transfer/Contract.xlsx
+++ b/Data Transfer/Contract.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stlawrencecollege-my.sharepoint.com/personal/xiuhao_shuai_student_sl_on_ca/Documents/BDAI/WeeklyActivities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shuai\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="11_F25DC773A252ABDACC104860091A4B7A5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17312D4E-4A6C-473B-AEA3-741386079C88}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8944E2AF-FEFD-484D-A42C-235C38C0C92A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="336" windowWidth="17280" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1044" windowWidth="17280" windowHeight="11916" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,8 +413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +448,6 @@
         <v>15</v>
       </c>
       <c r="C2" s="1">
-        <f ca="1">RANDBETWEEN(DATE(2010,1,1),DATE(2020,12,30))</f>
         <v>43202</v>
       </c>
       <c r="D2" s="1">
@@ -466,7 +465,6 @@
         <v>15</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C31" ca="1" si="0">RANDBETWEEN(DATE(2010,1,1),DATE(2020,12,30))</f>
         <v>41210</v>
       </c>
       <c r="D3" s="1">
@@ -484,7 +482,6 @@
         <v>15</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>44062</v>
       </c>
       <c r="D4" s="1">
@@ -502,7 +499,6 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42334</v>
       </c>
       <c r="D5" s="1">
@@ -520,7 +516,6 @@
         <v>15</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>43936</v>
       </c>
       <c r="D6" s="1">
@@ -538,7 +533,6 @@
         <v>15</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>40248</v>
       </c>
       <c r="D7" s="1">
@@ -556,7 +550,6 @@
         <v>15</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42142</v>
       </c>
       <c r="D8" s="1">
@@ -574,7 +567,6 @@
         <v>15</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>43071</v>
       </c>
       <c r="D9" s="1">
@@ -592,7 +584,6 @@
         <v>15</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>41823</v>
       </c>
       <c r="D10" s="1">
@@ -610,7 +601,6 @@
         <v>15</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>44114</v>
       </c>
       <c r="D11" s="1">
@@ -628,7 +618,6 @@
         <v>16</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>41505</v>
       </c>
       <c r="D12" s="1">
@@ -646,7 +635,6 @@
         <v>16</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>40194</v>
       </c>
       <c r="D13" s="1">
@@ -664,7 +652,6 @@
         <v>16</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42545</v>
       </c>
       <c r="D14" s="1">
@@ -682,7 +669,6 @@
         <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42557</v>
       </c>
       <c r="D15" s="1">
@@ -700,7 +686,6 @@
         <v>16</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42221</v>
       </c>
       <c r="D16" s="1">
@@ -718,7 +703,6 @@
         <v>16</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>41048</v>
       </c>
       <c r="D17" s="1">
@@ -736,7 +720,6 @@
         <v>16</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>41068</v>
       </c>
       <c r="D18" s="1">
@@ -754,7 +737,6 @@
         <v>16</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>44127</v>
       </c>
       <c r="D19" s="1">
@@ -772,7 +754,6 @@
         <v>16</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>41430</v>
       </c>
       <c r="D20" s="1">
@@ -790,7 +771,6 @@
         <v>16</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>40492</v>
       </c>
       <c r="D21" s="1">
@@ -808,7 +788,6 @@
         <v>17</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42017</v>
       </c>
       <c r="D22" s="1">
@@ -826,7 +805,6 @@
         <v>17</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>41840</v>
       </c>
       <c r="D23" s="1">
@@ -844,7 +822,6 @@
         <v>17</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>41171</v>
       </c>
       <c r="D24" s="1">
@@ -862,7 +839,6 @@
         <v>17</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42168</v>
       </c>
       <c r="D25" s="1">
@@ -880,7 +856,6 @@
         <v>17</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>43937</v>
       </c>
       <c r="D26" s="1">
@@ -898,7 +873,6 @@
         <v>17</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>44160</v>
       </c>
       <c r="D27" s="1">
@@ -916,7 +890,6 @@
         <v>17</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42988</v>
       </c>
       <c r="D28" s="1">
@@ -934,7 +907,6 @@
         <v>17</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>41208</v>
       </c>
       <c r="D29" s="1">
@@ -952,7 +924,6 @@
         <v>17</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>44058</v>
       </c>
       <c r="D30" s="1">
@@ -970,7 +941,6 @@
         <v>17</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>42925</v>
       </c>
       <c r="D31" s="1">
